--- a/data/TestLocation/input_data/scenario_settings.xlsx
+++ b/data/TestLocation/input_data/scenario_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E5F4D45-B073-4007-88EC-811C7B63AA8E}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6B50EB-1ECD-4C9D-8F9B-7AD893B56972}"/>
   <bookViews>
-    <workbookView xWindow="-8130" yWindow="-11250" windowWidth="20740" windowHeight="10750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6960" yWindow="-12450" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>n_timesteps</t>
   </si>
@@ -77,12 +77,39 @@
   </si>
   <si>
     <t>base_scenario</t>
+  </si>
+  <si>
+    <t>MinFossilShare</t>
+  </si>
+  <si>
+    <t>MaxFossilShare</t>
+  </si>
+  <si>
+    <t>Assumed</t>
+  </si>
+  <si>
+    <t>Source: A. Teruel, Perspestective of the Energy Transition: Technology Development and Investments under Uncertainty, Master thesis with DLR</t>
+  </si>
+  <si>
+    <t>euros/MW</t>
+  </si>
+  <si>
+    <t>CoalRampingHourly</t>
+  </si>
+  <si>
+    <t>CoalRampingDaily</t>
+  </si>
+  <si>
+    <t>CoalRampingWearTear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -394,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,9 +439,14 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +474,23 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8760</v>
       </c>
@@ -470,8 +518,23 @@
       <c r="I2">
         <v>0.05</v>
       </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.1</v>
+      </c>
+      <c r="M2">
+        <v>0.1</v>
+      </c>
+      <c r="N2">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -480,6 +543,26 @@
       </c>
       <c r="I4" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestLocation/input_data/scenario_settings.xlsx
+++ b/data/TestLocation/input_data/scenario_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6B50EB-1ECD-4C9D-8F9B-7AD893B56972}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C38F02-9A0C-433F-8D24-B1795F99B908}"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-12450" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="-13220" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>n_timesteps</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>CoalRampingWearTear</t>
+  </si>
+  <si>
+    <t>EnergyCurtailedMax</t>
+  </si>
+  <si>
+    <t>AutonomyDays</t>
+  </si>
+  <si>
+    <t>CostAutonomy</t>
+  </si>
+  <si>
+    <t>ReserveFUsedRatio</t>
+  </si>
+  <si>
+    <t>ReserveOUsedRatio</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,9 +459,14 @@
     <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +509,23 @@
       <c r="N1" t="s">
         <v>21</v>
       </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8760</v>
       </c>
@@ -533,8 +568,23 @@
       <c r="N2">
         <v>3.3</v>
       </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-1E-4</v>
+      </c>
+      <c r="R2">
+        <v>0.01</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -554,7 +604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>16</v>
       </c>

--- a/data/TestLocation/input_data/scenario_settings.xlsx
+++ b/data/TestLocation/input_data/scenario_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C38F02-9A0C-433F-8D24-B1795F99B908}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F2F45D-77BB-4FE2-8548-5762C36B3F68}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="-13220" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>n_timesteps</t>
   </si>
@@ -116,6 +116,90 @@
   </si>
   <si>
     <t>ReserveOUsedRatio</t>
+  </si>
+  <si>
+    <t>ReserveRenewables</t>
+  </si>
+  <si>
+    <t>ReserveLargestUnit</t>
+  </si>
+  <si>
+    <t>ReserveFast</t>
+  </si>
+  <si>
+    <t>e.g: Portugal 0.1</t>
+  </si>
+  <si>
+    <t>factor of totsal demand</t>
+  </si>
+  <si>
+    <t>factor of installed MW capacity</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>CostUnserved</t>
+  </si>
+  <si>
+    <t>CostSpilled</t>
+  </si>
+  <si>
+    <t>CostFictitiousFlows</t>
+  </si>
+  <si>
+    <t>RunningCosts</t>
+  </si>
+  <si>
+    <t>CarbonTax</t>
+  </si>
+  <si>
+    <t>EpsilonTransmission</t>
+  </si>
+  <si>
+    <t>EpsilonHydropeaking</t>
+  </si>
+  <si>
+    <t>EpsilonGHG</t>
+  </si>
+  <si>
+    <t>EpsilonPMatter</t>
+  </si>
+  <si>
+    <t>Unused??</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2030</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2035</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2040</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2045</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2050</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2020</t>
+  </si>
+  <si>
+    <t>CarbonTaxy2025</t>
+  </si>
+  <si>
+    <t>$ / tCO2</t>
+  </si>
+  <si>
+    <t>Source: fromChile Govt. link:http://www.minenergia.cl/mesa-geotermia/wp-content/uploads/2018/07/Informe-Final-Mesa-Geotermia.pdf</t>
+  </si>
+  <si>
+    <t>ReserveDemand</t>
+  </si>
+  <si>
+    <t>CostFictitiousFlow</t>
   </si>
 </sst>
 </file>
@@ -437,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,9 +548,19 @@
     <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="9.77734375" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +618,65 @@
       <c r="S1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8760</v>
       </c>
@@ -571,7 +722,7 @@
       <c r="O2">
         <v>0.5</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -583,8 +734,65 @@
       <c r="S2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="Y2">
+        <v>1E-3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>95000</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>94</v>
+      </c>
+      <c r="AB2">
+        <v>4.5</v>
+      </c>
+      <c r="AC2">
+        <v>8.6</v>
+      </c>
+      <c r="AD2">
+        <v>12.7</v>
+      </c>
+      <c r="AE2">
+        <v>16.8</v>
+      </c>
+      <c r="AF2">
+        <v>20.9</v>
+      </c>
+      <c r="AG2">
+        <v>25</v>
+      </c>
+      <c r="AH2">
+        <v>29.1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -603,8 +811,29 @@
       <c r="N4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>16</v>
       </c>
@@ -613,6 +842,84 @@
       </c>
       <c r="N5" t="s">
         <v>17</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
